--- a/data/tasks_data/18/3.xlsx
+++ b/data/tasks_data/18/3.xlsx
@@ -47,7 +47,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -353,329 +354,329 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J10" sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>23</v>
-      </c>
-      <c r="B1">
+      <c r="A1" s="1">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1">
+        <v>94</v>
+      </c>
+      <c r="I1" s="1">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1">
+        <v>83</v>
+      </c>
+      <c r="C2" s="1">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1">
+        <v>73</v>
+      </c>
+      <c r="H2" s="1">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1">
+        <v>89</v>
+      </c>
+      <c r="H3" s="1">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1">
+        <v>73</v>
+      </c>
+      <c r="E4" s="1">
+        <v>71</v>
+      </c>
+      <c r="F4" s="1">
+        <v>95</v>
+      </c>
+      <c r="G4" s="1">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1">
+        <v>77</v>
+      </c>
+      <c r="I4" s="1">
+        <v>68</v>
+      </c>
+      <c r="J4" s="1">
         <v>96</v>
       </c>
-      <c r="C1">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1">
+        <v>70</v>
+      </c>
+      <c r="H5" s="1">
+        <v>53</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="D1">
-        <v>62</v>
-      </c>
-      <c r="E1">
-        <v>59</v>
-      </c>
-      <c r="F1">
-        <v>10</v>
-      </c>
-      <c r="G1">
+      <c r="C6" s="1">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1">
+        <v>98</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1">
+        <v>48</v>
+      </c>
+      <c r="J6" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
         <v>73</v>
       </c>
-      <c r="H1">
+      <c r="C7" s="1">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1">
+        <v>94</v>
+      </c>
+      <c r="E7" s="1">
+        <v>75</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1">
+        <v>70</v>
+      </c>
+      <c r="I7" s="1">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1">
         <v>30</v>
       </c>
-      <c r="I1">
-        <v>10</v>
-      </c>
-      <c r="J1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>44</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>99</v>
-      </c>
-      <c r="D2">
+      <c r="C8" s="1">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>96</v>
+      </c>
+      <c r="G8" s="1">
+        <v>91</v>
+      </c>
+      <c r="H8" s="1">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>91</v>
+      </c>
+      <c r="E9" s="1">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1">
+        <v>64</v>
+      </c>
+      <c r="H9" s="1">
+        <v>83</v>
+      </c>
+      <c r="I9" s="1">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
         <v>88</v>
       </c>
-      <c r="E2">
-        <v>53</v>
-      </c>
-      <c r="F2">
-        <v>90</v>
-      </c>
-      <c r="G2">
-        <v>42</v>
-      </c>
-      <c r="H2">
-        <v>39</v>
-      </c>
-      <c r="I2">
-        <v>36</v>
-      </c>
-      <c r="J2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>39</v>
-      </c>
-      <c r="B3">
+      <c r="D10" s="1">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>82</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1">
         <v>32</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>34</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>39</v>
-      </c>
-      <c r="H3">
-        <v>95</v>
-      </c>
-      <c r="I3">
-        <v>36</v>
-      </c>
-      <c r="J3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>33</v>
-      </c>
-      <c r="B4">
-        <v>79</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>99</v>
-      </c>
-      <c r="E4">
-        <v>29</v>
-      </c>
-      <c r="F4">
-        <v>61</v>
-      </c>
-      <c r="G4">
-        <v>65</v>
-      </c>
-      <c r="H4">
-        <v>48</v>
-      </c>
-      <c r="I4">
-        <v>70</v>
-      </c>
-      <c r="J4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>73</v>
-      </c>
-      <c r="B5">
-        <v>49</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>39</v>
-      </c>
-      <c r="E5">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>49</v>
-      </c>
-      <c r="G5">
-        <v>68</v>
-      </c>
-      <c r="H5">
-        <v>37</v>
-      </c>
-      <c r="I5">
-        <v>60</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>98</v>
-      </c>
-      <c r="B6">
-        <v>65</v>
-      </c>
-      <c r="C6">
-        <v>67</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>39</v>
-      </c>
-      <c r="G6">
-        <v>74</v>
-      </c>
-      <c r="H6">
-        <v>29</v>
-      </c>
-      <c r="I6">
-        <v>70</v>
-      </c>
-      <c r="J6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>90</v>
-      </c>
-      <c r="C7">
-        <v>63</v>
-      </c>
-      <c r="D7">
-        <v>44</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>28</v>
-      </c>
-      <c r="I7">
-        <v>22</v>
-      </c>
-      <c r="J7">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>88</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>75</v>
-      </c>
-      <c r="E8">
-        <v>42</v>
-      </c>
-      <c r="F8">
-        <v>68</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <v>98</v>
-      </c>
-      <c r="J8">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>38</v>
-      </c>
-      <c r="B9">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>77</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>91</v>
-      </c>
-      <c r="F9">
-        <v>92</v>
-      </c>
-      <c r="G9">
-        <v>64</v>
-      </c>
-      <c r="H9">
-        <v>72</v>
-      </c>
-      <c r="I9">
-        <v>16</v>
-      </c>
-      <c r="J9">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>65</v>
-      </c>
-      <c r="B10">
-        <v>93</v>
-      </c>
-      <c r="C10">
-        <v>45</v>
-      </c>
-      <c r="D10">
-        <v>52</v>
-      </c>
-      <c r="E10">
-        <v>51</v>
-      </c>
-      <c r="F10">
-        <v>19</v>
-      </c>
-      <c r="G10">
-        <v>96</v>
-      </c>
-      <c r="H10">
-        <v>45</v>
-      </c>
-      <c r="I10">
-        <v>7</v>
-      </c>
-      <c r="J10">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
